--- a/Label Template/LiHep Vial/LiHep Vial.xlsx
+++ b/Label Template/LiHep Vial/LiHep Vial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stokes\Documents\GitHub\triploid-walleye-labwork\Label Template\LiHep Vial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\GitHub\triploid-walleye-labwork\Label Template\LiHep Vial\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318F3219-08E7-4BDF-97B9-563E6978E17B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="133">
   <si>
     <t>fishid</t>
   </si>
@@ -47,19 +48,388 @@
     <t>|</t>
   </si>
   <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>LiHep</t>
-  </si>
-  <si>
-    <t>NAR031720028</t>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>JUM100320J001</t>
+  </si>
+  <si>
+    <t>JUM100320J002</t>
+  </si>
+  <si>
+    <t>JUM100320J003</t>
+  </si>
+  <si>
+    <t>JUM100320J004</t>
+  </si>
+  <si>
+    <t>JUM100320J005</t>
+  </si>
+  <si>
+    <t>JUM100320J006</t>
+  </si>
+  <si>
+    <t>JUM100320J007</t>
+  </si>
+  <si>
+    <t>JUM100320J008</t>
+  </si>
+  <si>
+    <t>JUM100320J009</t>
+  </si>
+  <si>
+    <t>JUM100320J010</t>
+  </si>
+  <si>
+    <t>JUM100320J011</t>
+  </si>
+  <si>
+    <t>JUM100320J012</t>
+  </si>
+  <si>
+    <t>JUM100320J013</t>
+  </si>
+  <si>
+    <t>JUM100320J014</t>
+  </si>
+  <si>
+    <t>JUM100320J015</t>
+  </si>
+  <si>
+    <t>JUM100320J016</t>
+  </si>
+  <si>
+    <t>JUM100320J017</t>
+  </si>
+  <si>
+    <t>JUM100320J018</t>
+  </si>
+  <si>
+    <t>JUM100320J019</t>
+  </si>
+  <si>
+    <t>JUM100320J020</t>
+  </si>
+  <si>
+    <t>JUM100320J021</t>
+  </si>
+  <si>
+    <t>JUM100320J022</t>
+  </si>
+  <si>
+    <t>JUM100320J023</t>
+  </si>
+  <si>
+    <t>JUM100320J024</t>
+  </si>
+  <si>
+    <t>JUM100320J025</t>
+  </si>
+  <si>
+    <t>JUM100320J026</t>
+  </si>
+  <si>
+    <t>JUM100320J027</t>
+  </si>
+  <si>
+    <t>JUM100320J028</t>
+  </si>
+  <si>
+    <t>JUM100320J029</t>
+  </si>
+  <si>
+    <t>JUM100320J030</t>
+  </si>
+  <si>
+    <t>JUM100320J031</t>
+  </si>
+  <si>
+    <t>JUM100320J032</t>
+  </si>
+  <si>
+    <t>JUM100320J033</t>
+  </si>
+  <si>
+    <t>JUM100320J034</t>
+  </si>
+  <si>
+    <t>JUM100320J035</t>
+  </si>
+  <si>
+    <t>JUM100320J036</t>
+  </si>
+  <si>
+    <t>JUM100320J037</t>
+  </si>
+  <si>
+    <t>JUM100320J038</t>
+  </si>
+  <si>
+    <t>JUM100320J039</t>
+  </si>
+  <si>
+    <t>JUM100320J040</t>
+  </si>
+  <si>
+    <t>JUM100320J041</t>
+  </si>
+  <si>
+    <t>JUM100320J042</t>
+  </si>
+  <si>
+    <t>JUM100320J043</t>
+  </si>
+  <si>
+    <t>JUM100320J044</t>
+  </si>
+  <si>
+    <t>JUM100320J045</t>
+  </si>
+  <si>
+    <t>JUM100320J046</t>
+  </si>
+  <si>
+    <t>JUM100320J047</t>
+  </si>
+  <si>
+    <t>JUM100320J048</t>
+  </si>
+  <si>
+    <t>JUM100320J049</t>
+  </si>
+  <si>
+    <t>JUM100320J050</t>
+  </si>
+  <si>
+    <t>JUM100320J051</t>
+  </si>
+  <si>
+    <t>JUM100320J052</t>
+  </si>
+  <si>
+    <t>JUM100320J053</t>
+  </si>
+  <si>
+    <t>JUM100320J054</t>
+  </si>
+  <si>
+    <t>JUM100320J055</t>
+  </si>
+  <si>
+    <t>JUM100320J056</t>
+  </si>
+  <si>
+    <t>JUM100320J057</t>
+  </si>
+  <si>
+    <t>JUM100320J058</t>
+  </si>
+  <si>
+    <t>JUM100320J059</t>
+  </si>
+  <si>
+    <t>JUM100320J060</t>
+  </si>
+  <si>
+    <t>JUM100320J061</t>
+  </si>
+  <si>
+    <t>JUM100320J062</t>
+  </si>
+  <si>
+    <t>JUM100320J063</t>
+  </si>
+  <si>
+    <t>JUM100320J064</t>
+  </si>
+  <si>
+    <t>JUM100320J065</t>
+  </si>
+  <si>
+    <t>JUM100320J066</t>
+  </si>
+  <si>
+    <t>JUM100320J067</t>
+  </si>
+  <si>
+    <t>JUM100320J068</t>
+  </si>
+  <si>
+    <t>JUM100320J069</t>
+  </si>
+  <si>
+    <t>JUM100320J070</t>
+  </si>
+  <si>
+    <t>JUM100320J071</t>
+  </si>
+  <si>
+    <t>JUM100320J072</t>
+  </si>
+  <si>
+    <t>JUM100320J073</t>
+  </si>
+  <si>
+    <t>JUM100320J074</t>
+  </si>
+  <si>
+    <t>JUM100320J075</t>
+  </si>
+  <si>
+    <t>JUM100320J076</t>
+  </si>
+  <si>
+    <t>JUM100320J077</t>
+  </si>
+  <si>
+    <t>JUM100320J078</t>
+  </si>
+  <si>
+    <t>JUM100320J079</t>
+  </si>
+  <si>
+    <t>JUM100320J080</t>
+  </si>
+  <si>
+    <t>JUM100320J081</t>
+  </si>
+  <si>
+    <t>JUM100320J082</t>
+  </si>
+  <si>
+    <t>JUM100320J083</t>
+  </si>
+  <si>
+    <t>JUM100320J084</t>
+  </si>
+  <si>
+    <t>JUM100320J085</t>
+  </si>
+  <si>
+    <t>JUM100320J086</t>
+  </si>
+  <si>
+    <t>JUM100320J087</t>
+  </si>
+  <si>
+    <t>JUM100320J088</t>
+  </si>
+  <si>
+    <t>JUM100320J089</t>
+  </si>
+  <si>
+    <t>JUM100320J090</t>
+  </si>
+  <si>
+    <t>JUM100320J091</t>
+  </si>
+  <si>
+    <t>JUM100320J092</t>
+  </si>
+  <si>
+    <t>JUM100320J093</t>
+  </si>
+  <si>
+    <t>JUM100320J094</t>
+  </si>
+  <si>
+    <t>JUM100320J095</t>
+  </si>
+  <si>
+    <t>JUM100320J096</t>
+  </si>
+  <si>
+    <t>JUM100320J097</t>
+  </si>
+  <si>
+    <t>JUM100320J098</t>
+  </si>
+  <si>
+    <t>JUM100320J099</t>
+  </si>
+  <si>
+    <t>JUM100320J100</t>
+  </si>
+  <si>
+    <t>JUM100320J101</t>
+  </si>
+  <si>
+    <t>JUM100320J102</t>
+  </si>
+  <si>
+    <t>JUM100320J103</t>
+  </si>
+  <si>
+    <t>JUM100320J104</t>
+  </si>
+  <si>
+    <t>JUM100320J105</t>
+  </si>
+  <si>
+    <t>JUM100320J106</t>
+  </si>
+  <si>
+    <t>JUM100320J107</t>
+  </si>
+  <si>
+    <t>JUM100320J108</t>
+  </si>
+  <si>
+    <t>JUM100320J109</t>
+  </si>
+  <si>
+    <t>JUM100320J110</t>
+  </si>
+  <si>
+    <t>JUM100320J111</t>
+  </si>
+  <si>
+    <t>JUM100320J112</t>
+  </si>
+  <si>
+    <t>JUM100320J113</t>
+  </si>
+  <si>
+    <t>JUM100320J114</t>
+  </si>
+  <si>
+    <t>JUM100320J115</t>
+  </si>
+  <si>
+    <t>JUM100320J116</t>
+  </si>
+  <si>
+    <t>JUM100320J117</t>
+  </si>
+  <si>
+    <t>JUM100320J118</t>
+  </si>
+  <si>
+    <t>JUM100320J119</t>
+  </si>
+  <si>
+    <t>JUM100320J120</t>
+  </si>
+  <si>
+    <t>JUM100320J121</t>
+  </si>
+  <si>
+    <t>JUM100320J122</t>
+  </si>
+  <si>
+    <t>JUM100320J123</t>
+  </si>
+  <si>
+    <t>JUM100320J124</t>
+  </si>
+  <si>
+    <t>JUM100320J125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -410,11 +780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,18 +811,1751 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
         <v>6</v>
       </c>
     </row>
@@ -762,6 +2865,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B867E9D7F32E45489B1C7C69979B644D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="772cbc66b4e03ebe4a6feb88bfb7f7cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac7321bc-394f-4183-b398-e3bd3cc6b739" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c284b7c3d10beb7fe0aa7c1c5a4308f" ns2:_="">
     <xsd:import namespace="ac7321bc-394f-4183-b398-e3bd3cc6b739"/>
@@ -925,12 +3034,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -941,6 +3044,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000BCD3E-0D3A-45CD-B44E-0392B4EDF45D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f0771e2b-6b3d-459a-a370-5a5af8674225"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99814A27-194E-415F-A01C-3A9B58E93AF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,23 +3078,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000BCD3E-0D3A-45CD-B44E-0392B4EDF45D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f0771e2b-6b3d-459a-a370-5a5af8674225"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8F86B13-D175-43EE-B875-D919FC5C84F2}">
   <ds:schemaRefs>
